--- a/Project_Management/Project_Plan/Project_Plan.xlsx
+++ b/Project_Management/Project_Plan/Project_Plan.xlsx
@@ -16,23 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>Tháng</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>Nội dung</t>
   </si>
   <si>
-    <t>Khảo sát thực tế, thu thập yêu cầu, nghiên cứu khả năng</t>
-  </si>
-  <si>
-    <t>Nghiên cứu công nghệ điện toán đám mây</t>
-  </si>
-  <si>
-    <t>Xây dựng bài toán sổ liên lạc trực tuyến</t>
-  </si>
-  <si>
     <t>Cài đặt</t>
   </si>
   <si>
@@ -42,19 +30,90 @@
     <t>Thời gian</t>
   </si>
   <si>
-    <t>1.10 - 31.10</t>
-  </si>
-  <si>
-    <t>1.12 - 31.12</t>
-  </si>
-  <si>
-    <t>Cài đặt + Kiểm thử</t>
-  </si>
-  <si>
-    <t>1.11 - 30.11</t>
-  </si>
-  <si>
-    <t>16.9 - 30.9</t>
+    <t>Kiểm thử</t>
+  </si>
+  <si>
+    <t>19.9 - 24.9</t>
+  </si>
+  <si>
+    <t>26.9 - 1.10</t>
+  </si>
+  <si>
+    <t>3.10 - 8.10</t>
+  </si>
+  <si>
+    <t>10.10 - 15.10</t>
+  </si>
+  <si>
+    <t>17.10 - 22.10</t>
+  </si>
+  <si>
+    <t>24.10 - 29.10</t>
+  </si>
+  <si>
+    <t>31.10 - 5.11</t>
+  </si>
+  <si>
+    <t>7.11 - 12.11</t>
+  </si>
+  <si>
+    <t>14.11 - 19.11</t>
+  </si>
+  <si>
+    <t>21.11 - 26.11</t>
+  </si>
+  <si>
+    <t>28.10 - 3.12</t>
+  </si>
+  <si>
+    <t>5.12 - 10.12</t>
+  </si>
+  <si>
+    <t>19.12 - 24.12</t>
+  </si>
+  <si>
+    <t>12.12 - 17.12</t>
+  </si>
+  <si>
+    <t>Chi tiết</t>
+  </si>
+  <si>
+    <t>Nghiên cứu 
+công nghệ điện toán đám mây</t>
+  </si>
+  <si>
+    <t>Khảo sát thực tế, thu thập yêu cầu, 
+nghiên cứu khả năng</t>
+  </si>
+  <si>
+    <t>Tổng quan công nghệ ĐTĐM Windows Azure</t>
+  </si>
+  <si>
+    <t>Dịch vụ lưu trữ  ĐTĐM Windows Azure Service</t>
+  </si>
+  <si>
+    <t>Cơ sở dữ liệu quan hệ ĐTĐM SQL Azure</t>
+  </si>
+  <si>
+    <t>Xây dựng bài toán Sổ liên lạc trực tuyến</t>
+  </si>
+  <si>
+    <t>Thu thập yêu cầu, nghiệp vụ</t>
+  </si>
+  <si>
+    <t>Use Case, Class Diagram</t>
+  </si>
+  <si>
+    <t>Screen Diagram, Database Diagram</t>
+  </si>
+  <si>
+    <t>Coding</t>
+  </si>
+  <si>
+    <t>Test, Fix bug</t>
+  </si>
+  <si>
+    <t>Tài liệu hóa nghiên cứu</t>
   </si>
 </sst>
 </file>
@@ -99,12 +158,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,82 +476,225 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="C7:F22"/>
+  <dimension ref="A2:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="5" max="5" width="33.140625" customWidth="1"/>
+    <col min="2" max="2" width="16.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" customWidth="1"/>
+    <col min="4" max="4" width="50" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" customWidth="1"/>
+    <col min="6" max="6" width="33.42578125" customWidth="1"/>
+    <col min="7" max="7" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="7" spans="3:6">
-      <c r="C7" s="2" t="s">
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="3"/>
+      <c r="D4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="3"/>
+      <c r="D5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="3"/>
+      <c r="D6" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>21</v>
+      </c>
       <c r="D7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="3"/>
+      <c r="D8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="3:6">
-      <c r="C8" s="1">
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3"/>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="E8" t="s">
+      <c r="B11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="3"/>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="3"/>
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
         <v>12</v>
       </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="19" spans="3:6">
-      <c r="C19" s="1">
-        <v>10</v>
-      </c>
-      <c r="E19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F19" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6">
-      <c r="C20" s="1">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s">
-        <v>11</v>
-      </c>
-      <c r="F20" t="s">
+      <c r="B14" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="3" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="21" spans="3:6">
+      <c r="D14" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+    </row>
+    <row r="19" spans="3:3">
+      <c r="C19" s="1"/>
+    </row>
+    <row r="20" spans="3:3">
+      <c r="C20" s="1"/>
+    </row>
+    <row r="21" spans="3:3">
       <c r="C21" s="1"/>
-      <c r="F21" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="3:6">
-      <c r="C22" s="1">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" t="s">
-        <v>10</v>
-      </c>
+    </row>
+    <row r="22" spans="3:3">
+      <c r="C22" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C7:C8"/>
+    <mergeCell ref="C3:C6"/>
+    <mergeCell ref="C9:C13"/>
+    <mergeCell ref="C14:C16"/>
+    <mergeCell ref="D11:D13"/>
+    <mergeCell ref="D14:D16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
